--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf2</t>
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H2">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I2">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J2">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N2">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q2">
-        <v>1.995406117097556</v>
+        <v>3.383870807627779</v>
       </c>
       <c r="R2">
-        <v>17.958655053878</v>
+        <v>30.45483726865001</v>
       </c>
       <c r="S2">
-        <v>0.007941720356120339</v>
+        <v>0.0142460973663763</v>
       </c>
       <c r="T2">
-        <v>0.007941720356120337</v>
+        <v>0.01424609736637629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H3">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I3">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J3">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q3">
-        <v>10.54547755612689</v>
+        <v>12.63672094626711</v>
       </c>
       <c r="R3">
-        <v>94.90929800514201</v>
+        <v>113.730488516404</v>
       </c>
       <c r="S3">
-        <v>0.041971021866126</v>
+        <v>0.05320059991251608</v>
       </c>
       <c r="T3">
-        <v>0.04197102186612599</v>
+        <v>0.05320059991251607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H4">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I4">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J4">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N4">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q4">
-        <v>2.722468030051556</v>
+        <v>0.5085897969848889</v>
       </c>
       <c r="R4">
-        <v>24.502212270464</v>
+        <v>4.577308172864</v>
       </c>
       <c r="S4">
-        <v>0.01083542823081875</v>
+        <v>0.002141163235623524</v>
       </c>
       <c r="T4">
-        <v>0.01083542823081875</v>
+        <v>0.002141163235623524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H5">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I5">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J5">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N5">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q5">
-        <v>5.938611211100111</v>
+        <v>7.757269844495779</v>
       </c>
       <c r="R5">
-        <v>53.447500899901</v>
+        <v>69.81542860046201</v>
       </c>
       <c r="S5">
-        <v>0.02363568455472085</v>
+        <v>0.03265810894814092</v>
       </c>
       <c r="T5">
-        <v>0.02363568455472085</v>
+        <v>0.03265810894814092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H6">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I6">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J6">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N6">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q6">
-        <v>2.232077919713334</v>
+        <v>0.5143429610611112</v>
       </c>
       <c r="R6">
-        <v>20.08870127742</v>
+        <v>4.62908664955</v>
       </c>
       <c r="S6">
-        <v>0.008883674606159115</v>
+        <v>0.002165384058537286</v>
       </c>
       <c r="T6">
-        <v>0.008883674606159115</v>
+        <v>0.002165384058537286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N7">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q7">
-        <v>16.63842584404</v>
+        <v>23.54651109850001</v>
       </c>
       <c r="R7">
-        <v>149.74583259636</v>
+        <v>211.9185998865001</v>
       </c>
       <c r="S7">
-        <v>0.06622096829672643</v>
+        <v>0.09913082053592095</v>
       </c>
       <c r="T7">
-        <v>0.06622096829672643</v>
+        <v>0.09913082053592094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q8">
         <v>87.93204791956002</v>
@@ -948,10 +948,10 @@
         <v>791.3884312760401</v>
       </c>
       <c r="S8">
-        <v>0.3499697274326724</v>
+        <v>0.370193954646011</v>
       </c>
       <c r="T8">
-        <v>0.3499697274326724</v>
+        <v>0.3701939546460109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,40 +980,40 @@
         <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N9">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q9">
-        <v>22.70093393152001</v>
+        <v>3.538998968960001</v>
       </c>
       <c r="R9">
-        <v>204.3084053836801</v>
+        <v>31.85099072064</v>
       </c>
       <c r="S9">
-        <v>0.09034976266842885</v>
+        <v>0.01489918698363478</v>
       </c>
       <c r="T9">
-        <v>0.09034976266842885</v>
+        <v>0.01489918698363477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N10">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q10">
-        <v>49.51831178918</v>
+        <v>53.97860937118001</v>
       </c>
       <c r="R10">
-        <v>445.66480610262</v>
+        <v>485.8074843406201</v>
       </c>
       <c r="S10">
-        <v>0.197082980435515</v>
+        <v>0.2272499656517649</v>
       </c>
       <c r="T10">
-        <v>0.197082980435515</v>
+        <v>0.2272499656517649</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N11">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q11">
-        <v>18.61188187560001</v>
+        <v>3.5790320995</v>
       </c>
       <c r="R11">
-        <v>167.5069368804</v>
+        <v>32.2112888955</v>
       </c>
       <c r="S11">
-        <v>0.07407532726829526</v>
+        <v>0.0150677264781888</v>
       </c>
       <c r="T11">
-        <v>0.07407532726829526</v>
+        <v>0.0150677264781888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H12">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I12">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J12">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N12">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q12">
-        <v>0.669282068994</v>
+        <v>1.376380326305556</v>
       </c>
       <c r="R12">
-        <v>6.023538620946</v>
+        <v>12.38742293675</v>
       </c>
       <c r="S12">
-        <v>0.002663743979620226</v>
+        <v>0.005794561688795595</v>
       </c>
       <c r="T12">
-        <v>0.002663743979620227</v>
+        <v>0.005794561688795593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H13">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I13">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J13">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q13">
-        <v>3.537073970466</v>
+        <v>5.139952169642223</v>
       </c>
       <c r="R13">
-        <v>31.833665734194</v>
+        <v>46.25956952678001</v>
       </c>
       <c r="S13">
-        <v>0.01407756151074276</v>
+        <v>0.02163920055759256</v>
       </c>
       <c r="T13">
-        <v>0.01407756151074277</v>
+        <v>0.02163920055759256</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H14">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I14">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J14">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N14">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q14">
-        <v>0.9131469630720001</v>
+        <v>0.2068675284977778</v>
       </c>
       <c r="R14">
-        <v>8.218322667648001</v>
+        <v>1.86180775648</v>
       </c>
       <c r="S14">
-        <v>0.003634326748134259</v>
+        <v>0.0008709123723866289</v>
       </c>
       <c r="T14">
-        <v>0.00363432674813426</v>
+        <v>0.0008709123723866287</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H15">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I15">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J15">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N15">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q15">
-        <v>1.991878226823</v>
+        <v>3.155248591565556</v>
       </c>
       <c r="R15">
-        <v>17.926904041407</v>
+        <v>28.39723732409</v>
       </c>
       <c r="S15">
-        <v>0.007927679345737772</v>
+        <v>0.01328359775120263</v>
       </c>
       <c r="T15">
-        <v>0.007927679345737773</v>
+        <v>0.01328359775120263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H16">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I16">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J16">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N16">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q16">
-        <v>0.74866450266</v>
+        <v>0.2092076124722222</v>
       </c>
       <c r="R16">
-        <v>6.73798052394</v>
+        <v>1.88286851225</v>
       </c>
       <c r="S16">
-        <v>0.002979686225141979</v>
+        <v>0.0008807641267947123</v>
       </c>
       <c r="T16">
-        <v>0.00297968622514198</v>
+        <v>0.0008807641267947123</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H17">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N17">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q17">
-        <v>2.091321153870667</v>
+        <v>3.019370662625001</v>
       </c>
       <c r="R17">
-        <v>18.821890384836</v>
+        <v>27.174335963625</v>
       </c>
       <c r="S17">
-        <v>0.008323462395233175</v>
+        <v>0.01271155161951661</v>
       </c>
       <c r="T17">
-        <v>0.008323462395233175</v>
+        <v>0.01271155161951661</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H18">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.558846</v>
       </c>
       <c r="O18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q18">
-        <v>11.05237680782267</v>
+        <v>11.27553227237</v>
       </c>
       <c r="R18">
-        <v>99.47139127040401</v>
+        <v>101.47979045133</v>
       </c>
       <c r="S18">
-        <v>0.04398848190656633</v>
+        <v>0.04746999508604484</v>
       </c>
       <c r="T18">
-        <v>0.04398848190656633</v>
+        <v>0.04746999508604483</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H19">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N19">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q19">
-        <v>2.853331426218667</v>
+        <v>0.45380606992</v>
       </c>
       <c r="R19">
-        <v>25.679982835968</v>
+        <v>4.08425462928</v>
       </c>
       <c r="S19">
-        <v>0.01135626481055375</v>
+        <v>0.001910523724179965</v>
       </c>
       <c r="T19">
-        <v>0.01135626481055375</v>
+        <v>0.001910523724179965</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H20">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N20">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q20">
-        <v>6.224067944851333</v>
+        <v>6.921680620235001</v>
       </c>
       <c r="R20">
-        <v>56.016611503662</v>
+        <v>62.29512558211501</v>
       </c>
       <c r="S20">
-        <v>0.02477180292871944</v>
+        <v>0.02914027800132089</v>
       </c>
       <c r="T20">
-        <v>0.02477180292871944</v>
+        <v>0.02914027800132089</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,46 +1718,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H21">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N21">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q21">
-        <v>2.33936927956</v>
+        <v>0.458939520875</v>
       </c>
       <c r="R21">
-        <v>21.05432351604</v>
+        <v>4.130455687875</v>
       </c>
       <c r="S21">
-        <v>0.009310694433967153</v>
+        <v>0.001932135554621481</v>
       </c>
       <c r="T21">
-        <v>0.009310694433967153</v>
+        <v>0.001932135554621481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.023536</v>
+      </c>
+      <c r="I22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.173991666666667</v>
+      </c>
+      <c r="N22">
+        <v>9.521975000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.1364420332266311</v>
+      </c>
+      <c r="P22">
+        <v>0.1364420332266311</v>
+      </c>
+      <c r="Q22">
+        <v>1.082898244844445</v>
+      </c>
+      <c r="R22">
+        <v>9.746084203600001</v>
+      </c>
+      <c r="S22">
+        <v>0.004559002016021682</v>
+      </c>
+      <c r="T22">
+        <v>0.004559002016021681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.023536</v>
+      </c>
+      <c r="I23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.85294866666667</v>
+      </c>
+      <c r="N23">
+        <v>35.558846</v>
+      </c>
+      <c r="O23">
+        <v>0.5095288789807429</v>
+      </c>
+      <c r="P23">
+        <v>0.5095288789807428</v>
+      </c>
+      <c r="Q23">
+        <v>4.043973222161778</v>
+      </c>
+      <c r="R23">
+        <v>36.395758999456</v>
+      </c>
+      <c r="S23">
+        <v>0.01702512877857845</v>
+      </c>
+      <c r="T23">
+        <v>0.01702512877857844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.023536</v>
+      </c>
+      <c r="I24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.4770453333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.431136</v>
+      </c>
+      <c r="O24">
+        <v>0.02050699625485553</v>
+      </c>
+      <c r="P24">
+        <v>0.02050699625485553</v>
+      </c>
+      <c r="Q24">
+        <v>0.1627576907662222</v>
+      </c>
+      <c r="R24">
+        <v>1.464819216896</v>
+      </c>
+      <c r="S24">
+        <v>0.0006852099390306323</v>
+      </c>
+      <c r="T24">
+        <v>0.0006852099390306322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.023536</v>
+      </c>
+      <c r="I25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.276137666666667</v>
+      </c>
+      <c r="N25">
+        <v>21.828413</v>
+      </c>
+      <c r="O25">
+        <v>0.3127831202907618</v>
+      </c>
+      <c r="P25">
+        <v>0.3127831202907618</v>
+      </c>
+      <c r="Q25">
+        <v>2.482462947596445</v>
+      </c>
+      <c r="R25">
+        <v>22.342166528368</v>
+      </c>
+      <c r="S25">
+        <v>0.01045116993833253</v>
+      </c>
+      <c r="T25">
+        <v>0.01045116993833253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.023536</v>
+      </c>
+      <c r="I26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.4824416666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.447325</v>
+      </c>
+      <c r="O26">
+        <v>0.02073897124700851</v>
+      </c>
+      <c r="P26">
+        <v>0.02073897124700851</v>
+      </c>
+      <c r="Q26">
+        <v>0.1645988045777778</v>
+      </c>
+      <c r="R26">
+        <v>1.4813892412</v>
+      </c>
+      <c r="S26">
+        <v>0.0006929610288662362</v>
+      </c>
+      <c r="T26">
+        <v>0.0006929610288662362</v>
       </c>
     </row>
   </sheetData>
